--- a/data/Supplementary Table 1 - Mouse metagenomes.xlsx
+++ b/data/Supplementary Table 1 - Mouse metagenomes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Virginia/Desktop/Pedicord Lab - Cambridge/Manuscripts/DP-IELs/Figures &amp; Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/puspendu/Work/PostDoc_Cambridge/Amelia_data/Manuscript/supplementary_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{34EF9295-8939-C84B-9E51-E62267296BBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E926F655-914F-E44B-9717-05254A7DF037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="22160" windowHeight="16940"/>
+    <workbookView xWindow="4560" yWindow="1860" windowWidth="22160" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mouse_samples" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="129">
   <si>
     <t>Sample</t>
   </si>
@@ -404,12 +404,15 @@
   </si>
   <si>
     <t>MMETAGEN10280503</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1253,11 +1256,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1885,6 +1888,12 @@
       <c r="A37" t="s">
         <v>117</v>
       </c>
+      <c r="B37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" t="s">
+        <v>128</v>
+      </c>
       <c r="D37" t="s">
         <v>116</v>
       </c>
@@ -1896,6 +1905,12 @@
       <c r="A38" t="s">
         <v>118</v>
       </c>
+      <c r="B38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" t="s">
+        <v>128</v>
+      </c>
       <c r="D38" t="s">
         <v>116</v>
       </c>
@@ -1907,6 +1922,12 @@
       <c r="A39" t="s">
         <v>119</v>
       </c>
+      <c r="B39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" t="s">
+        <v>128</v>
+      </c>
       <c r="D39" t="s">
         <v>116</v>
       </c>
@@ -1918,6 +1939,12 @@
       <c r="A40" t="s">
         <v>120</v>
       </c>
+      <c r="B40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" t="s">
+        <v>128</v>
+      </c>
       <c r="D40" t="s">
         <v>116</v>
       </c>
@@ -1929,6 +1956,12 @@
       <c r="A41" t="s">
         <v>121</v>
       </c>
+      <c r="B41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" t="s">
+        <v>128</v>
+      </c>
       <c r="D41" t="s">
         <v>116</v>
       </c>
@@ -1940,6 +1973,12 @@
       <c r="A42" t="s">
         <v>122</v>
       </c>
+      <c r="B42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" t="s">
+        <v>128</v>
+      </c>
       <c r="D42" t="s">
         <v>116</v>
       </c>
@@ -1951,6 +1990,12 @@
       <c r="A43" t="s">
         <v>123</v>
       </c>
+      <c r="B43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" t="s">
+        <v>128</v>
+      </c>
       <c r="D43" t="s">
         <v>116</v>
       </c>
@@ -1962,6 +2007,12 @@
       <c r="A44" t="s">
         <v>124</v>
       </c>
+      <c r="B44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" t="s">
+        <v>128</v>
+      </c>
       <c r="D44" t="s">
         <v>116</v>
       </c>
@@ -1973,6 +2024,12 @@
       <c r="A45" t="s">
         <v>125</v>
       </c>
+      <c r="B45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" t="s">
+        <v>128</v>
+      </c>
       <c r="D45" t="s">
         <v>116</v>
       </c>
@@ -1984,6 +2041,12 @@
       <c r="A46" t="s">
         <v>126</v>
       </c>
+      <c r="B46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" t="s">
+        <v>128</v>
+      </c>
       <c r="D46" t="s">
         <v>116</v>
       </c>
@@ -1994,6 +2057,12 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>127</v>
+      </c>
+      <c r="B47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" t="s">
+        <v>128</v>
       </c>
       <c r="D47" t="s">
         <v>116</v>

--- a/data/Supplementary Table 1 - Mouse metagenomes.xlsx
+++ b/data/Supplementary Table 1 - Mouse metagenomes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/puspendu/Work/PostDoc_Cambridge/Amelia_data/Manuscript/supplementary_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E926F655-914F-E44B-9717-05254A7DF037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB9B7CB-0C49-484B-AA41-3F436284FD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="1860" windowWidth="22160" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37840" yWindow="1780" windowWidth="22160" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mouse_samples" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="150">
   <si>
     <t>Sample</t>
   </si>
@@ -406,14 +406,77 @@
     <t>MMETAGEN10280503</t>
   </si>
   <si>
-    <t>TBD</t>
+    <t>SAMN38525407</t>
+  </si>
+  <si>
+    <t>SAMN38525408</t>
+  </si>
+  <si>
+    <t>SAMN38525409</t>
+  </si>
+  <si>
+    <t>SAMN38525410</t>
+  </si>
+  <si>
+    <t>SAMN38525411</t>
+  </si>
+  <si>
+    <t>SAMN38525412</t>
+  </si>
+  <si>
+    <t>SAMN38525413</t>
+  </si>
+  <si>
+    <t>SAMN38525414</t>
+  </si>
+  <si>
+    <t>SAMN38525415</t>
+  </si>
+  <si>
+    <t>SAMN38525416</t>
+  </si>
+  <si>
+    <t>SAMN38525417</t>
+  </si>
+  <si>
+    <t>SRR27048886</t>
+  </si>
+  <si>
+    <t>SRR27048885</t>
+  </si>
+  <si>
+    <t>SRR27048883</t>
+  </si>
+  <si>
+    <t>SRR27048882</t>
+  </si>
+  <si>
+    <t>SRR27048881</t>
+  </si>
+  <si>
+    <t>SRR27048880</t>
+  </si>
+  <si>
+    <t>SRR27048879</t>
+  </si>
+  <si>
+    <t>SRR27048878</t>
+  </si>
+  <si>
+    <t>SRR27048877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	SRR27048876</t>
+  </si>
+  <si>
+    <t>SRR27048884</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -544,6 +607,12 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1259,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1270,6 +1339,7 @@
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1889,7 +1959,7 @@
         <v>117</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C37" t="s">
         <v>128</v>
@@ -1906,10 +1976,10 @@
         <v>118</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D38" t="s">
         <v>116</v>
@@ -1923,10 +1993,10 @@
         <v>119</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s">
         <v>116</v>
@@ -1940,10 +2010,10 @@
         <v>120</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D40" t="s">
         <v>116</v>
@@ -1957,10 +2027,10 @@
         <v>121</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D41" t="s">
         <v>116</v>
@@ -1974,10 +2044,10 @@
         <v>122</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D42" t="s">
         <v>116</v>
@@ -1991,10 +2061,10 @@
         <v>123</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D43" t="s">
         <v>116</v>
@@ -2008,10 +2078,10 @@
         <v>124</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D44" t="s">
         <v>116</v>
@@ -2025,10 +2095,10 @@
         <v>125</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D45" t="s">
         <v>116</v>
@@ -2042,10 +2112,10 @@
         <v>126</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D46" t="s">
         <v>116</v>
@@ -2059,10 +2129,10 @@
         <v>127</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C47" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
         <v>116</v>
@@ -2072,6 +2142,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>